--- a/SuppXLS/Scen_ELC_RNW_Potentials.xlsx
+++ b/SuppXLS/Scen_ELC_RNW_Potentials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C1F369-5BF2-40BE-9F89-D49011468ABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1D0CEA-FE38-4818-9DD8-BD4FF76EA280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="6" r:id="rId1"/>
@@ -138,9 +138,6 @@
     <t>UC_RHSRTS~0</t>
   </si>
   <si>
-    <t>ELCC,ELCD</t>
-  </si>
-  <si>
     <t>~TFM_INS</t>
   </si>
   <si>
@@ -577,6 +574,9 @@
   </si>
   <si>
     <t>Hydro potenatial</t>
+  </si>
+  <si>
+    <t>ELCC</t>
   </si>
 </sst>
 </file>
@@ -1527,7 +1527,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF91BB28-928D-4F8B-9905-35F16F464D66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2037,13 +2037,13 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>99</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>100</v>
       </c>
       <c r="E5" s="29" t="str">
         <f>A11</f>
@@ -2152,7 +2152,7 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="29" t="str">
         <f>C5</f>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>"*"&amp;C5</f>
@@ -2386,223 +2386,223 @@
     </row>
     <row r="10" spans="1:30" ht="15.75" thickBot="1">
       <c r="A10" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>103</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="32" t="s">
         <v>105</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="33" t="s">
         <v>107</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="33" t="s">
         <v>109</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="33" t="s">
         <v>111</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>113</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="33" t="s">
         <v>115</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>117</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="33" t="s">
         <v>119</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="33" t="s">
         <v>121</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="33" t="s">
         <v>123</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="33" t="s">
         <v>125</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="33" t="s">
         <v>127</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>129</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="33" t="s">
         <v>131</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="33" t="s">
         <v>133</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="33" t="s">
         <v>135</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="33" t="s">
         <v>137</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="33" t="s">
         <v>139</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="33" t="s">
         <v>141</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="33" t="s">
         <v>143</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="33" t="s">
         <v>145</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="33" t="s">
         <v>147</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="33" t="s">
         <v>149</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="33" t="s">
         <v>151</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="33" t="s">
         <v>153</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="33" t="s">
         <v>155</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2660,7 +2660,7 @@
   <sheetData>
     <row r="2" spans="2:17">
       <c r="B2" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="3" spans="2:17" ht="15.75" thickBot="1">
       <c r="B3" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>9</v>
@@ -2692,10 +2692,10 @@
         <v>2</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>24</v>
       </c>
       <c r="H3" s="14" t="str">
         <f>Regions!C3</f>
@@ -2712,7 +2712,7 @@
         <v>3</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>1</v>
@@ -2721,13 +2721,13 @@
         <v>6</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:17">
@@ -2735,7 +2735,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>2050</v>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="J4" s="17"/>
       <c r="K4" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:17">
@@ -2759,7 +2759,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>2050</v>
@@ -2772,7 +2772,7 @@
         <v>8.7322500000000005</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:17">
@@ -2780,7 +2780,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>2050</v>
@@ -2793,7 +2793,7 @@
         <v>5.7896999999999998</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:17">
@@ -2801,7 +2801,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>2050</v>
@@ -2814,7 +2814,7 @@
         <v>3.9777</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:17">
@@ -2822,7 +2822,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>2050</v>
@@ -2835,7 +2835,7 @@
         <v>3.9907499999999998</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2861,7 +2861,7 @@
   <sheetData>
     <row r="1" spans="2:29">
       <c r="B1" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="2" spans="2:29" ht="15.75" thickBot="1">
       <c r="B2" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>9</v>
@@ -2893,10 +2893,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>24</v>
       </c>
       <c r="H2" s="14" t="str">
         <f>Regions!C3</f>
@@ -2913,7 +2913,7 @@
         <v>3</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" s="15" t="s">
         <v>1</v>
@@ -2922,43 +2922,43 @@
         <v>6</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P2" s="15" t="s">
         <v>5</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" t="s">
         <v>40</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>41</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>42</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>43</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>44</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>48</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:29">
@@ -2966,7 +2966,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>2020</v>
@@ -2982,34 +2982,34 @@
       </c>
       <c r="J3" s="17"/>
       <c r="K3" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" t="s">
         <v>50</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>51</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>52</v>
-      </c>
-      <c r="W3" t="s">
-        <v>53</v>
       </c>
       <c r="X3">
         <v>100</v>
       </c>
       <c r="Y3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z3" t="s">
         <v>54</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>55</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>56</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>57</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>2025</v>
@@ -3033,34 +3033,34 @@
         <v>2.6998000000000002</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" t="s">
         <v>50</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>51</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>52</v>
-      </c>
-      <c r="W4" t="s">
-        <v>53</v>
       </c>
       <c r="X4">
         <v>100</v>
       </c>
       <c r="Y4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z4" t="s">
         <v>54</v>
       </c>
-      <c r="Z4" t="s">
-        <v>55</v>
-      </c>
       <c r="AA4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB4" t="s">
         <v>58</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>59</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>2030</v>
@@ -3084,34 +3084,34 @@
         <v>3.4620000000000002</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" t="s">
         <v>50</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>51</v>
       </c>
-      <c r="V5" t="s">
-        <v>52</v>
-      </c>
       <c r="W5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X5">
         <v>100</v>
       </c>
       <c r="Y5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z5" t="s">
         <v>54</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>55</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>56</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>57</v>
       </c>
       <c r="AC5">
         <v>0.75</v>
@@ -3122,7 +3122,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>2050</v>
@@ -3135,34 +3135,34 @@
         <v>3.4620000000000002</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" t="s">
         <v>50</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>51</v>
       </c>
-      <c r="V6" t="s">
-        <v>52</v>
-      </c>
       <c r="W6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X6">
         <v>100</v>
       </c>
       <c r="Y6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z6" t="s">
         <v>54</v>
       </c>
-      <c r="Z6" t="s">
-        <v>55</v>
-      </c>
       <c r="AA6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB6" t="s">
         <v>58</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>59</v>
       </c>
       <c r="AC6">
         <v>3.4620000000000002</v>
@@ -3170,31 +3170,31 @@
     </row>
     <row r="7" spans="2:29">
       <c r="T7" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" t="s">
         <v>50</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>51</v>
       </c>
-      <c r="V7" t="s">
-        <v>52</v>
-      </c>
       <c r="W7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X7">
         <v>100</v>
       </c>
       <c r="Y7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z7" t="s">
         <v>54</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>55</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>56</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>57</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -3202,31 +3202,31 @@
     </row>
     <row r="8" spans="2:29">
       <c r="T8" t="s">
+        <v>49</v>
+      </c>
+      <c r="U8" t="s">
         <v>50</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>51</v>
       </c>
-      <c r="V8" t="s">
-        <v>52</v>
-      </c>
       <c r="W8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X8">
         <v>100</v>
       </c>
       <c r="Y8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z8" t="s">
         <v>54</v>
       </c>
-      <c r="Z8" t="s">
-        <v>55</v>
-      </c>
       <c r="AA8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB8" t="s">
         <v>58</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>59</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -3234,28 +3234,28 @@
     </row>
     <row r="9" spans="2:29">
       <c r="T9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U9" t="s">
+        <v>61</v>
+      </c>
+      <c r="V9" t="s">
         <v>62</v>
-      </c>
-      <c r="V9" t="s">
-        <v>63</v>
       </c>
       <c r="X9">
         <v>100</v>
       </c>
       <c r="Y9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z9" t="s">
         <v>54</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>55</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>56</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>57</v>
       </c>
       <c r="AC9">
         <v>35.200000000000003</v>
@@ -3263,28 +3263,28 @@
     </row>
     <row r="10" spans="2:29">
       <c r="T10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X10">
         <v>100</v>
       </c>
       <c r="Y10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z10" t="s">
         <v>54</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>55</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>56</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>57</v>
       </c>
       <c r="AC10">
         <v>35.700000000000003</v>
@@ -3292,28 +3292,28 @@
     </row>
     <row r="11" spans="2:29">
       <c r="T11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U11" t="s">
+        <v>61</v>
+      </c>
+      <c r="V11" t="s">
         <v>62</v>
-      </c>
-      <c r="V11" t="s">
-        <v>63</v>
       </c>
       <c r="X11">
         <v>100</v>
       </c>
       <c r="Y11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z11" t="s">
         <v>54</v>
       </c>
-      <c r="Z11" t="s">
-        <v>55</v>
-      </c>
       <c r="AA11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB11" t="s">
         <v>58</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>59</v>
       </c>
       <c r="AC11">
         <v>137.4</v>
@@ -3321,28 +3321,28 @@
     </row>
     <row r="12" spans="2:29">
       <c r="T12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X12">
         <v>100</v>
       </c>
       <c r="Y12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z12" t="s">
         <v>54</v>
       </c>
-      <c r="Z12" t="s">
-        <v>55</v>
-      </c>
       <c r="AA12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB12" t="s">
         <v>58</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>59</v>
       </c>
       <c r="AC12">
         <v>139.9</v>
@@ -3372,7 +3372,7 @@
   <sheetData>
     <row r="3" spans="2:19">
       <c r="B3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -3392,7 +3392,7 @@
     </row>
     <row r="4" spans="2:19" ht="15.75" thickBot="1">
       <c r="B4" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>9</v>
@@ -3404,10 +3404,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>24</v>
       </c>
       <c r="H4" s="14" t="str">
         <f>Regions!C3</f>
@@ -3424,7 +3424,7 @@
         <v>3</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>1</v>
@@ -3433,13 +3433,13 @@
         <v>6</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>5</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:19">
@@ -3448,7 +3448,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="16">
         <v>2030</v>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
@@ -3479,7 +3479,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="16">
         <v>2040</v>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
@@ -3509,7 +3509,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="16">
         <v>2050</v>
@@ -3522,12 +3522,12 @@
         <v>31.1</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:19">
       <c r="B9" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="10" spans="2:19" ht="15.75" thickBot="1">
       <c r="B10" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>9</v>
@@ -3559,10 +3559,10 @@
         <v>2</v>
       </c>
       <c r="F10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>24</v>
       </c>
       <c r="H10" s="14" t="str">
         <f>Regions!C3</f>
@@ -3579,7 +3579,7 @@
         <v>3</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M10" s="15" t="s">
         <v>1</v>
@@ -3588,13 +3588,13 @@
         <v>6</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P10" s="15" t="s">
         <v>5</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:19">
@@ -3603,7 +3603,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="16">
         <v>2030</v>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
@@ -3634,7 +3634,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="16">
         <v>2040</v>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
@@ -3665,7 +3665,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="16">
         <v>2050</v>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
@@ -3690,7 +3690,7 @@
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
       <c r="S13" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="2:19">
@@ -3713,7 +3713,7 @@
   <dimension ref="A1:V48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3740,7 +3740,7 @@
         <v>10</v>
       </c>
       <c r="S3" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -3748,7 +3748,7 @@
         <v>7</v>
       </c>
       <c r="S4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U4" s="26">
         <v>0.12</v>
@@ -3798,7 +3798,7 @@
         <v>11</v>
       </c>
       <c r="S5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -3806,10 +3806,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="I6">
         <v>2020</v>
@@ -3830,10 +3830,10 @@
         <v>17</v>
       </c>
       <c r="U6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -3841,10 +3841,10 @@
         <v>15</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="I7">
         <v>2050</v>
@@ -3860,24 +3860,24 @@
       </c>
       <c r="M7" s="3"/>
       <c r="S7" t="s">
+        <v>69</v>
+      </c>
+      <c r="T7" t="s">
         <v>70</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>71</v>
       </c>
-      <c r="U7" t="s">
-        <v>72</v>
-      </c>
       <c r="V7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="S8" t="s">
+        <v>72</v>
+      </c>
+      <c r="T8" t="s">
         <v>73</v>
-      </c>
-      <c r="T8" t="s">
-        <v>74</v>
       </c>
       <c r="U8">
         <v>10127</v>
@@ -3888,10 +3888,10 @@
     </row>
     <row r="9" spans="1:22">
       <c r="S9" t="s">
+        <v>74</v>
+      </c>
+      <c r="T9" t="s">
         <v>75</v>
-      </c>
-      <c r="T9" t="s">
-        <v>76</v>
       </c>
       <c r="U9">
         <v>83</v>
@@ -3902,10 +3902,10 @@
     </row>
     <row r="10" spans="1:22">
       <c r="S10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U10">
         <v>56</v>
@@ -3916,7 +3916,7 @@
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -3934,10 +3934,10 @@
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
       <c r="S11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U11">
         <v>56</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
       <c r="B12" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>9</v>
@@ -3960,13 +3960,13 @@
         <v>2</v>
       </c>
       <c r="F12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="H12" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="I12" s="15" t="s">
         <v>4</v>
@@ -3975,7 +3975,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L12" s="15" t="s">
         <v>1</v>
@@ -3984,19 +3984,19 @@
         <v>6</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O12" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U12">
         <v>87</v>
@@ -4011,7 +4011,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="16">
         <v>2050</v>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
@@ -4032,10 +4032,10 @@
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="S13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U13">
         <v>108</v>
@@ -4062,10 +4062,10 @@
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
       <c r="S14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U14">
         <v>108</v>
@@ -4092,10 +4092,10 @@
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
       <c r="S15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U15">
         <v>108</v>
@@ -4122,10 +4122,10 @@
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
       <c r="S16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U16">
         <v>37</v>
@@ -4152,10 +4152,10 @@
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
       <c r="S17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U17">
         <v>25</v>
@@ -4166,10 +4166,10 @@
     </row>
     <row r="18" spans="2:22">
       <c r="S18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U18">
         <v>25</v>
@@ -4180,10 +4180,10 @@
     </row>
     <row r="19" spans="2:22">
       <c r="S19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U19">
         <v>287</v>
@@ -4194,10 +4194,10 @@
     </row>
     <row r="20" spans="2:22">
       <c r="S20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U20">
         <v>66</v>
@@ -4208,10 +4208,10 @@
     </row>
     <row r="21" spans="2:22">
       <c r="S21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U21">
         <v>66</v>
@@ -4222,10 +4222,10 @@
     </row>
     <row r="22" spans="2:22">
       <c r="S22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U22">
         <v>66</v>
@@ -4236,10 +4236,10 @@
     </row>
     <row r="23" spans="2:22">
       <c r="S23" t="s">
+        <v>89</v>
+      </c>
+      <c r="T23" t="s">
         <v>90</v>
-      </c>
-      <c r="T23" t="s">
-        <v>91</v>
       </c>
       <c r="U23">
         <v>598</v>
@@ -4250,10 +4250,10 @@
     </row>
     <row r="24" spans="2:22">
       <c r="S24" t="s">
+        <v>91</v>
+      </c>
+      <c r="T24" t="s">
         <v>92</v>
-      </c>
-      <c r="T24" t="s">
-        <v>93</v>
       </c>
       <c r="U24">
         <v>7867</v>
@@ -4264,10 +4264,10 @@
     </row>
     <row r="25" spans="2:22">
       <c r="S25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U25">
         <v>26</v>
@@ -4278,10 +4278,10 @@
     </row>
     <row r="26" spans="2:22">
       <c r="S26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U26">
         <v>458</v>
@@ -4292,32 +4292,32 @@
     </row>
     <row r="28" spans="2:22">
       <c r="U28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="2:22">
       <c r="S29" t="s">
+        <v>69</v>
+      </c>
+      <c r="T29" t="s">
         <v>70</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>71</v>
       </c>
-      <c r="U29" t="s">
-        <v>72</v>
-      </c>
       <c r="V29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="2:22">
       <c r="S30" t="s">
+        <v>72</v>
+      </c>
+      <c r="T30" t="s">
         <v>73</v>
-      </c>
-      <c r="T30" t="s">
-        <v>74</v>
       </c>
       <c r="U30">
         <v>10663</v>
@@ -4328,10 +4328,10 @@
     </row>
     <row r="31" spans="2:22">
       <c r="S31" t="s">
+        <v>74</v>
+      </c>
+      <c r="T31" t="s">
         <v>75</v>
-      </c>
-      <c r="T31" t="s">
-        <v>76</v>
       </c>
       <c r="U31">
         <v>84</v>
@@ -4342,10 +4342,10 @@
     </row>
     <row r="32" spans="2:22">
       <c r="S32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U32">
         <v>56</v>
@@ -4356,10 +4356,10 @@
     </row>
     <row r="33" spans="19:22">
       <c r="S33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U33">
         <v>56</v>
@@ -4370,10 +4370,10 @@
     </row>
     <row r="34" spans="19:22">
       <c r="S34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U34">
         <v>92</v>
@@ -4384,10 +4384,10 @@
     </row>
     <row r="35" spans="19:22">
       <c r="S35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U35">
         <v>110</v>
@@ -4398,10 +4398,10 @@
     </row>
     <row r="36" spans="19:22">
       <c r="S36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U36">
         <v>110</v>
@@ -4412,10 +4412,10 @@
     </row>
     <row r="37" spans="19:22">
       <c r="S37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U37">
         <v>110</v>
@@ -4426,10 +4426,10 @@
     </row>
     <row r="38" spans="19:22">
       <c r="S38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U38">
         <v>37</v>
@@ -4440,10 +4440,10 @@
     </row>
     <row r="39" spans="19:22">
       <c r="S39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U39">
         <v>25</v>
@@ -4454,10 +4454,10 @@
     </row>
     <row r="40" spans="19:22">
       <c r="S40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U40">
         <v>25</v>
@@ -4468,10 +4468,10 @@
     </row>
     <row r="41" spans="19:22">
       <c r="S41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U41">
         <v>291</v>
@@ -4482,10 +4482,10 @@
     </row>
     <row r="42" spans="19:22">
       <c r="S42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U42">
         <v>68</v>
@@ -4496,10 +4496,10 @@
     </row>
     <row r="43" spans="19:22">
       <c r="S43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U43">
         <v>68</v>
@@ -4510,10 +4510,10 @@
     </row>
     <row r="44" spans="19:22">
       <c r="S44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U44">
         <v>68</v>
@@ -4524,10 +4524,10 @@
     </row>
     <row r="45" spans="19:22">
       <c r="S45" t="s">
+        <v>89</v>
+      </c>
+      <c r="T45" t="s">
         <v>90</v>
-      </c>
-      <c r="T45" t="s">
-        <v>91</v>
       </c>
       <c r="U45">
         <v>743</v>
@@ -4538,10 +4538,10 @@
     </row>
     <row r="46" spans="19:22">
       <c r="S46" t="s">
+        <v>91</v>
+      </c>
+      <c r="T46" t="s">
         <v>92</v>
-      </c>
-      <c r="T46" t="s">
-        <v>93</v>
       </c>
       <c r="U46">
         <v>8175</v>
@@ -4552,10 +4552,10 @@
     </row>
     <row r="47" spans="19:22">
       <c r="S47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U47">
         <v>34</v>
@@ -4566,10 +4566,10 @@
     </row>
     <row r="48" spans="19:22">
       <c r="S48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U48">
         <v>511</v>
@@ -4591,7 +4591,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4667,10 +4667,10 @@
         <v>18</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="I6">
         <v>2020</v>
@@ -4688,7 +4688,7 @@
         <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -4696,10 +4696,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="I7">
         <v>2050</v>
